--- a/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.124</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.124</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Préleveur</t>
+  </si>
+  <si>
+    <t>ES-REF</t>
+  </si>
+  <si>
+    <t>Etablissement de santé de référence</t>
+  </si>
+  <si>
+    <t>ES-PREF</t>
+  </si>
+  <si>
+    <t>Etablissement de santé de préférence</t>
   </si>
   <si>
     <t/>
@@ -415,7 +427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,15 +466,31 @@
         <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -492,50 +520,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -565,26 +593,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,7 +74,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -120,9 +126,6 @@
   </si>
   <si>
     <t>Etablissement de santé de préférence</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -298,7 +301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -404,20 +407,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -439,58 +450,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -512,58 +523,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -585,34 +596,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,58 +74,55 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Jeux de valeurs des Rôles fonctionnels HL7 et CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>CORRE</t>
+  </si>
+  <si>
+    <t>Correspondant</t>
+  </si>
+  <si>
+    <t>PRELV</t>
+  </si>
+  <si>
+    <t>Préleveur</t>
+  </si>
+  <si>
+    <t>ES-REF</t>
+  </si>
+  <si>
+    <t>Etablissement de santé de référence</t>
+  </si>
+  <si>
+    <t>ES-PREF</t>
+  </si>
+  <si>
+    <t>Etablissement de santé de préférence</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Jeux de valeurs des Rôles fonctionnels HL7 et CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>CORRE</t>
-  </si>
-  <si>
-    <t>Correspondant</t>
-  </si>
-  <si>
-    <t>PRELV</t>
-  </si>
-  <si>
-    <t>Préleveur</t>
-  </si>
-  <si>
-    <t>ES-REF</t>
-  </si>
-  <si>
-    <t>Etablissement de santé de référence</t>
-  </si>
-  <si>
-    <t>ES-PREF</t>
-  </si>
-  <si>
-    <t>Etablissement de santé de préférence</t>
   </si>
   <si>
     <t>System URI</t>
@@ -301,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -407,28 +404,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -450,58 +439,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -523,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -596,34 +585,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -77,55 +77,52 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Jeux de valeurs des Rôles fonctionnels HL7 et CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>CORRE</t>
+  </si>
+  <si>
+    <t>Correspondant</t>
+  </si>
+  <si>
+    <t>PRELV</t>
+  </si>
+  <si>
+    <t>Préleveur</t>
+  </si>
+  <si>
+    <t>ES-REF</t>
+  </si>
+  <si>
+    <t>Etablissement de santé de référence</t>
+  </si>
+  <si>
+    <t>ES-PREF</t>
+  </si>
+  <si>
+    <t>Etablissement de santé de préférence</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Jeux de valeurs des Rôles fonctionnels HL7 et CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>CORRE</t>
-  </si>
-  <si>
-    <t>Correspondant</t>
-  </si>
-  <si>
-    <t>PRELV</t>
-  </si>
-  <si>
-    <t>Préleveur</t>
-  </si>
-  <si>
-    <t>ES-REF</t>
-  </si>
-  <si>
-    <t>Etablissement de santé de référence</t>
-  </si>
-  <si>
-    <t>ES-PREF</t>
-  </si>
-  <si>
-    <t>Etablissement de santé de préférence</t>
   </si>
   <si>
     <t>System URI</t>
@@ -301,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -407,28 +404,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -450,58 +439,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -523,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -596,34 +585,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J47-FunctionCode-CISIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R259-HL7ParticipationFunction/FHIR/TRE-R259-HL7ParticipationFunction</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Coordonnateur de parcours</t>
   </si>
   <si>
     <t>353</t>
@@ -573,7 +579,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -601,18 +607,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>49</v>
+      <c r="B5" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
